--- a/Taskmanagement.xlsx
+++ b/Taskmanagement.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kun\Desktop\Uni\Automatisierungstechnik\ProjektaufgabeAT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{98BAB0BF-20D3-42AD-BC62-7935EC77C0A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0611C760-891B-4BDA-A83D-32EBD0421C19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7FA1E254-1B33-40C8-B6AE-EFE1F4B02A4D}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>Anforderung</t>
   </si>
@@ -61,13 +60,76 @@
   </si>
   <si>
     <t>Datum</t>
+  </si>
+  <si>
+    <t>Definition der Problemstellung</t>
+  </si>
+  <si>
+    <t>Wählen des Instruments</t>
+  </si>
+  <si>
+    <t>Notiz</t>
+  </si>
+  <si>
+    <t>Festellen der notwendigen Daten</t>
+  </si>
+  <si>
+    <t>Festlegen der Datentypen</t>
+  </si>
+  <si>
+    <t>Festlegen von min-max-Werten der Daten</t>
+  </si>
+  <si>
+    <t>Visualisierung des Instruments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erstellen des Frames </t>
+  </si>
+  <si>
+    <t>Feststellen notwendiger Visualisierungselemente</t>
+  </si>
+  <si>
+    <t>Verhalten der Visualisierungselemente bestimmen</t>
+  </si>
+  <si>
+    <t>Statische Visualisierung erstellen</t>
+  </si>
+  <si>
+    <t>Daten aus Schnittstelle abrufen</t>
+  </si>
+  <si>
+    <t>Verhalten programmieren</t>
+  </si>
+  <si>
+    <t>Tests entwickeln</t>
+  </si>
+  <si>
+    <t>Programm mit Tests auf Fehlverhalten überprüfen</t>
+  </si>
+  <si>
+    <t>Datensimulator</t>
+  </si>
+  <si>
+    <t>Festlegen einer Schnittstelle</t>
+  </si>
+  <si>
+    <t>Dynamisches Verhalten der Daten bestimmen</t>
+  </si>
+  <si>
+    <t>Dynamisches Verhalten programmieren</t>
+  </si>
+  <si>
+    <t>Daten zur Verfügung Stellen</t>
+  </si>
+  <si>
+    <t>Plausibilitätstests entwickeln</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,49 +137,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="8">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -147,52 +173,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="Gut" xfId="1" builtinId="26"/>
-    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
-    <cellStyle name="Schlecht" xfId="2" builtinId="27"/>
+  <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -210,7 +206,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -232,16 +228,6 @@
   <autoFilter ref="K1:K4" xr:uid="{EA716592-49C7-4970-845B-5A35992EE658}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{7D8F7D5B-1079-49E0-9CAE-8368F0E409DA}" name="Status" dataCellStyle="Standard"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{985CDF1B-3072-409D-8AD2-7904B4C2983D}" name="Tabelle1" displayName="Tabelle1" ref="B2:B5" totalsRowShown="0">
-  <autoFilter ref="B2:B5" xr:uid="{985CDF1B-3072-409D-8AD2-7904B4C2983D}"/>
-  <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{196F24D8-1EC7-4680-A41B-48BED878358E}" name="Status"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -544,16 +530,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9E32C3B-A763-4171-98D0-768452F8F394}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.6640625" customWidth="1"/>
-    <col min="2" max="2" width="34.77734375" customWidth="1"/>
+    <col min="1" max="1" width="43.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -571,6 +557,9 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K1" t="s">
@@ -578,34 +567,122 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K2" s="7" t="s">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K3" s="6" t="s">
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K4" s="5" t="s">
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:D1048576">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Erledigt">
-      <formula>NOT(ISERROR(SEARCH("Erledigt",D2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="in Arbeit">
-      <formula>NOT(ISERROR(SEARCH("in Arbeit",D2)))</formula>
-    </cfRule>
     <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Abgebrochen">
       <formula>NOT(ISERROR(SEARCH("Abgebrochen",D2)))</formula>
     </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="in Arbeit">
+      <formula>NOT(ISERROR(SEARCH("in Arbeit",D2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Erledigt">
+      <formula>NOT(ISERROR(SEARCH("Erledigt",D2)))</formula>
+    </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="D2:D1048576" xr:uid="{BD9FDE97-7F6A-4810-A886-8AC23400B70E}">
+    <dataValidation type="list" allowBlank="1" sqref="D2:D5 D7:D1048576 D6" xr:uid="{BD9FDE97-7F6A-4810-A886-8AC23400B70E}">
       <formula1>$K$2:$K$5</formula1>
     </dataValidation>
   </dataValidations>
@@ -615,42 +692,4 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AF639BA-FACE-42FD-87D5-E064383AA31D}">
-  <dimension ref="B2:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B5" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
 </file>
--- a/Taskmanagement.xlsx
+++ b/Taskmanagement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kun\Desktop\Uni\Automatisierungstechnik\ProjektaufgabeAT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0611C760-891B-4BDA-A83D-32EBD0421C19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A24109D-42AE-464E-BDEC-1D4A9EC69D64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7FA1E254-1B33-40C8-B6AE-EFE1F4B02A4D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
   <si>
     <t>Anforderung</t>
   </si>
@@ -123,6 +123,12 @@
   </si>
   <si>
     <t>Plausibilitätstests entwickeln</t>
+  </si>
+  <si>
+    <t>siehe Datenlexikon</t>
+  </si>
+  <si>
+    <t>Rausfinden wie Text rotieren</t>
   </si>
 </sst>
 </file>
@@ -530,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9E32C3B-A763-4171-98D0-768452F8F394}">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -541,6 +547,7 @@
     <col min="1" max="1" width="43.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -573,6 +580,9 @@
       <c r="B2" t="s">
         <v>9</v>
       </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
       <c r="K2" s="4" t="s">
         <v>4</v>
       </c>
@@ -581,6 +591,9 @@
       <c r="B3" t="s">
         <v>11</v>
       </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
       <c r="K3" s="3" t="s">
         <v>5</v>
       </c>
@@ -589,6 +602,12 @@
       <c r="B4" t="s">
         <v>13</v>
       </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
       <c r="K4" s="2" t="s">
         <v>6</v>
       </c>
@@ -605,11 +624,17 @@
       <c r="B6" t="s">
         <v>16</v>
       </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>17</v>
       </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
@@ -642,30 +667,44 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>23</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>25</v>
+      <c r="D15" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
+      <c r="D17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
         <v>28</v>
       </c>
     </row>
@@ -682,7 +721,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="D2:D5 D7:D1048576 D6" xr:uid="{BD9FDE97-7F6A-4810-A886-8AC23400B70E}">
+    <dataValidation type="list" allowBlank="1" sqref="D22:D1048576 D2:D21" xr:uid="{BD9FDE97-7F6A-4810-A886-8AC23400B70E}">
       <formula1>$K$2:$K$5</formula1>
     </dataValidation>
   </dataValidations>

--- a/Taskmanagement.xlsx
+++ b/Taskmanagement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kun\Desktop\Uni\Automatisierungstechnik\ProjektaufgabeAT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A24109D-42AE-464E-BDEC-1D4A9EC69D64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CBE8054-395F-4298-AEF2-A92D98A02A28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7FA1E254-1B33-40C8-B6AE-EFE1F4B02A4D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="40">
   <si>
     <t>Anforderung</t>
   </si>
@@ -128,7 +128,34 @@
     <t>siehe Datenlexikon</t>
   </si>
   <si>
-    <t>Rausfinden wie Text rotieren</t>
+    <t>Ghaith</t>
+  </si>
+  <si>
+    <t>Stefan</t>
+  </si>
+  <si>
+    <t>Test Rotieren?</t>
+  </si>
+  <si>
+    <t>Verhalten Steuerelemente bestimmen</t>
+  </si>
+  <si>
+    <t>Steuerelemente einfügen</t>
+  </si>
+  <si>
+    <t>Daten</t>
+  </si>
+  <si>
+    <t>Anzahl</t>
+  </si>
+  <si>
+    <t>Summe Task</t>
+  </si>
+  <si>
+    <t>Task übrig</t>
+  </si>
+  <si>
+    <t>Ideal</t>
   </si>
 </sst>
 </file>
@@ -182,7 +209,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -190,6 +217,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -229,9 +257,1035 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Burn Down Chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Task übrig</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tabelle1!$F$2:$F$22</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>45257</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45257</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45258</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45261</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>45320</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$G$2:$G$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-18D2-4702-81A9-96170E4056FF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ideal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tabelle1!$F$2:$F$22</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>45257</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45257</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45258</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45261</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>45320</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$H$2:$H$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-18D2-4702-81A9-96170E4056FF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="896382272"/>
+        <c:axId val="905197104"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="896382272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="905197104"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="905197104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="896382272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>632460</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Diagramm 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15359E01-BAFB-FFC8-EEBA-A78F240BE9B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{EA716592-49C7-4970-845B-5A35992EE658}" name="Tabelle15" displayName="Tabelle15" ref="K1:K4" totalsRowShown="0" dataCellStyle="Standard">
-  <autoFilter ref="K1:K4" xr:uid="{EA716592-49C7-4970-845B-5A35992EE658}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{EA716592-49C7-4970-845B-5A35992EE658}" name="Tabelle15" displayName="Tabelle15" ref="L1:L4" totalsRowShown="0" dataCellStyle="Standard">
+  <autoFilter ref="L1:L4" xr:uid="{EA716592-49C7-4970-845B-5A35992EE658}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{7D8F7D5B-1079-49E0-9CAE-8368F0E409DA}" name="Status" dataCellStyle="Standard"/>
   </tableColumns>
@@ -536,10 +1590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9E32C3B-A763-4171-98D0-768452F8F394}">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -548,9 +1602,11 @@
     <col min="2" max="2" width="42" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.109375" customWidth="1"/>
+    <col min="10" max="10" width="1.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -569,11 +1625,29 @@
       <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="S1" t="s">
+        <v>7</v>
+      </c>
+      <c r="T1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -583,22 +1657,56 @@
       <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="F2" s="5">
+        <v>45257</v>
+      </c>
+      <c r="G2">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2">
+        <f>COUNTA(B2:B26)</f>
+        <v>20</v>
+      </c>
+      <c r="L2" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="S2" s="5">
+        <v>45257</v>
+      </c>
+      <c r="T2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>11</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="F3" s="5">
+        <v>45257</v>
+      </c>
+      <c r="G3">
+        <v>18</v>
+      </c>
+      <c r="H3">
+        <v>20</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="S3" s="5">
+        <v>45320</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>13</v>
       </c>
@@ -608,105 +1716,226 @@
       <c r="E4" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="F4" s="5">
+        <v>45258</v>
+      </c>
+      <c r="G4">
+        <v>17</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="S4" s="5"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="S5" s="5"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>14</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
       </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
       <c r="D6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="S6" s="5"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>17</v>
       </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
       <c r="D7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="S7" s="5"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="S8" s="5"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="S9" s="5"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="S10" s="5"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="S11" s="5"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="S12" s="5"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="S13" s="5"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="S14" s="5"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+      <c r="S15" s="5"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>12</v>
       </c>
-      <c r="D15" t="s">
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
+      <c r="F16" s="5">
+        <v>45261</v>
+      </c>
+      <c r="G16">
+        <v>16</v>
+      </c>
+      <c r="H16">
+        <v>16</v>
+      </c>
+      <c r="S16" s="5"/>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
         <v>25</v>
       </c>
-      <c r="D16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>26</v>
+      <c r="C17" t="s">
+        <v>31</v>
       </c>
       <c r="D17" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="S17" s="5"/>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" t="s">
+        <v>5</v>
+      </c>
+      <c r="S18" s="5"/>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
+      <c r="C19" t="s">
+        <v>31</v>
+      </c>
+      <c r="S19" s="5"/>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
         <v>28</v>
       </c>
+      <c r="C20" t="s">
+        <v>31</v>
+      </c>
+      <c r="S20" s="5"/>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" t="s">
+        <v>31</v>
+      </c>
+      <c r="S21" s="5"/>
+    </row>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="F22" s="5">
+        <v>45320</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="S22" s="5"/>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="S23" s="5"/>
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="S24" s="5"/>
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="S25" s="5"/>
+    </row>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="S26" s="5"/>
+    </row>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="S27" s="5"/>
+    </row>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="S28" s="5"/>
+    </row>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="S29" s="5"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:D1048576">
@@ -720,15 +1949,16 @@
       <formula>NOT(ISERROR(SEARCH("Erledigt",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="D22:D1048576 D2:D21" xr:uid="{BD9FDE97-7F6A-4810-A886-8AC23400B70E}">
-      <formula1>$K$2:$K$5</formula1>
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" allowBlank="1" sqref="D2:D1048576" xr:uid="{BD9FDE97-7F6A-4810-A886-8AC23400B70E}">
+      <formula1>$L$2:$L$5</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Taskmanagement.xlsx
+++ b/Taskmanagement.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kun\Desktop\Uni\Automatisierungstechnik\ProjektaufgabeAT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ghaith\Desktop\AT_Projekt\ProjektaufgabeAT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CBE8054-395F-4298-AEF2-A92D98A02A28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{633E61C3-4770-4212-8736-AC3E44283AAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7FA1E254-1B33-40C8-B6AE-EFE1F4B02A4D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7FA1E254-1B33-40C8-B6AE-EFE1F4B02A4D}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -1294,9 +1294,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1334,7 +1334,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1440,7 +1440,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1582,7 +1582,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1593,20 +1593,21 @@
   <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.109375" customWidth="1"/>
-    <col min="10" max="10" width="1.77734375" customWidth="1"/>
+    <col min="1" max="1" width="43.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.140625" customWidth="1"/>
+    <col min="10" max="10" width="1.7109375" customWidth="1"/>
+    <col min="12" max="12" width="24.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1647,7 +1648,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1680,7 +1681,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>11</v>
       </c>
@@ -1706,7 +1707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>13</v>
       </c>
@@ -1727,13 +1728,13 @@
       </c>
       <c r="S4" s="5"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>24</v>
       </c>
       <c r="S5" s="5"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -1748,7 +1749,7 @@
       </c>
       <c r="S6" s="5"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>17</v>
       </c>
@@ -1760,7 +1761,7 @@
       </c>
       <c r="S7" s="5"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>15</v>
       </c>
@@ -1769,7 +1770,7 @@
       </c>
       <c r="S8" s="5"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>18</v>
       </c>
@@ -1778,7 +1779,7 @@
       </c>
       <c r="S9" s="5"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>19</v>
       </c>
@@ -1787,7 +1788,7 @@
       </c>
       <c r="S10" s="5"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>20</v>
       </c>
@@ -1796,7 +1797,7 @@
       </c>
       <c r="S11" s="5"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>21</v>
       </c>
@@ -1805,7 +1806,7 @@
       </c>
       <c r="S12" s="5"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>22</v>
       </c>
@@ -1814,7 +1815,7 @@
       </c>
       <c r="S13" s="5"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>34</v>
       </c>
@@ -1823,7 +1824,7 @@
       </c>
       <c r="S14" s="5"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>32</v>
       </c>
@@ -1832,7 +1833,7 @@
       </c>
       <c r="S15" s="5"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -1856,7 +1857,7 @@
       </c>
       <c r="S16" s="5"/>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>25</v>
       </c>
@@ -1868,7 +1869,7 @@
       </c>
       <c r="S17" s="5"/>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>26</v>
       </c>
@@ -1880,7 +1881,7 @@
       </c>
       <c r="S18" s="5"/>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>27</v>
       </c>
@@ -1889,7 +1890,7 @@
       </c>
       <c r="S19" s="5"/>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>28</v>
       </c>
@@ -1898,7 +1899,7 @@
       </c>
       <c r="S20" s="5"/>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>33</v>
       </c>
@@ -1907,7 +1908,7 @@
       </c>
       <c r="S21" s="5"/>
     </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
       <c r="F22" s="5">
         <v>45320</v>
       </c>
@@ -1916,25 +1917,25 @@
       </c>
       <c r="S22" s="5"/>
     </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
       <c r="S23" s="5"/>
     </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
       <c r="S24" s="5"/>
     </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
       <c r="S25" s="5"/>
     </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
       <c r="S26" s="5"/>
     </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
       <c r="S27" s="5"/>
     </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
       <c r="S28" s="5"/>
     </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
       <c r="S29" s="5"/>
     </row>
   </sheetData>

--- a/Taskmanagement.xlsx
+++ b/Taskmanagement.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ghaith\Desktop\AT_Projekt\ProjektaufgabeAT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{633E61C3-4770-4212-8736-AC3E44283AAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A0EEACA-7D4E-4067-B153-98311C75A0C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7FA1E254-1B33-40C8-B6AE-EFE1F4B02A4D}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{7FA1E254-1B33-40C8-B6AE-EFE1F4B02A4D}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -1246,16 +1246,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>312420</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>632460</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>394335</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1294,9 +1294,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 – 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1334,7 +1334,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 – 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1440,7 +1440,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 – 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1582,7 +1582,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>

--- a/Taskmanagement.xlsx
+++ b/Taskmanagement.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ghaith\Desktop\AT_Projekt\ProjektaufgabeAT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kun\Desktop\Uni\Automatisierungstechnik\ProjektaufgabeAT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A0EEACA-7D4E-4067-B153-98311C75A0C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A902D35A-ADF6-4E20-8159-CC191BBBD209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{7FA1E254-1B33-40C8-B6AE-EFE1F4B02A4D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7FA1E254-1B33-40C8-B6AE-EFE1F4B02A4D}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="40">
   <si>
     <t>Anforderung</t>
   </si>
@@ -373,8 +373,56 @@
                 <c:pt idx="2">
                   <c:v>45258</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>45258</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45265</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45265</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45280</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45280</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45280</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45301</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45320</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45320</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45301</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45320</c:v>
+                </c:pt>
                 <c:pt idx="14">
-                  <c:v>45261</c:v>
+                  <c:v>45258</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45265</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45303</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45268</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45305</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45265</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>45320</c:v>
@@ -395,10 +443,58 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17</c:v>
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -451,8 +547,56 @@
                 <c:pt idx="2">
                   <c:v>45258</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>45258</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45265</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45265</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45280</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45280</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45280</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45301</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45320</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45320</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45301</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45320</c:v>
+                </c:pt>
                 <c:pt idx="14">
-                  <c:v>45261</c:v>
+                  <c:v>45258</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45265</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45303</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45268</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45305</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45265</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>45320</c:v>
@@ -1294,9 +1438,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1334,7 +1478,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1440,7 +1584,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1582,7 +1726,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1592,22 +1736,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9E32C3B-A763-4171-98D0-768452F8F394}">
   <dimension ref="A1:T29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="72" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.140625" customWidth="1"/>
-    <col min="10" max="10" width="1.7109375" customWidth="1"/>
-    <col min="12" max="12" width="24.85546875" customWidth="1"/>
+    <col min="1" max="1" width="43.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.88671875" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="1.33203125" customWidth="1"/>
+    <col min="9" max="9" width="7.109375" customWidth="1"/>
+    <col min="10" max="10" width="1.6640625" customWidth="1"/>
+    <col min="12" max="12" width="24.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1648,7 +1793,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1681,7 +1826,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>11</v>
       </c>
@@ -1707,7 +1852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>13</v>
       </c>
@@ -1721,20 +1866,29 @@
         <v>45258</v>
       </c>
       <c r="G4">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="S4" s="5"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>24</v>
       </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="5">
+        <v>45258</v>
+      </c>
+      <c r="G5">
+        <v>16</v>
+      </c>
       <c r="S5" s="5"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -1745,11 +1899,17 @@
         <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="F6" s="5">
+        <v>45265</v>
+      </c>
+      <c r="G6">
+        <v>12</v>
       </c>
       <c r="S6" s="5"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>17</v>
       </c>
@@ -1757,83 +1917,161 @@
         <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="F7" s="5">
+        <v>45265</v>
+      </c>
+      <c r="G7">
+        <v>12</v>
       </c>
       <c r="S7" s="5"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>15</v>
       </c>
       <c r="C8" t="s">
         <v>30</v>
       </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="5">
+        <v>45280</v>
+      </c>
+      <c r="G8">
+        <v>8</v>
+      </c>
       <c r="S8" s="5"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>18</v>
       </c>
       <c r="C9" t="s">
         <v>30</v>
       </c>
+      <c r="D9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="5">
+        <v>45280</v>
+      </c>
+      <c r="G9">
+        <v>8</v>
+      </c>
       <c r="S9" s="5"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>19</v>
       </c>
       <c r="C10" t="s">
         <v>30</v>
       </c>
+      <c r="D10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="5">
+        <v>45280</v>
+      </c>
+      <c r="G10">
+        <v>8</v>
+      </c>
       <c r="S10" s="5"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>20</v>
       </c>
       <c r="C11" t="s">
         <v>30</v>
       </c>
+      <c r="D11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="5">
+        <v>45301</v>
+      </c>
+      <c r="G11">
+        <v>6</v>
+      </c>
       <c r="S11" s="5"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>21</v>
       </c>
       <c r="C12" t="s">
         <v>30</v>
       </c>
+      <c r="D12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="5">
+        <v>45320</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
       <c r="S12" s="5"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>22</v>
       </c>
       <c r="C13" t="s">
         <v>30</v>
       </c>
+      <c r="D13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="5">
+        <v>45320</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
       <c r="S13" s="5"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>34</v>
       </c>
       <c r="C14" t="s">
         <v>30</v>
       </c>
+      <c r="D14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="5">
+        <v>45301</v>
+      </c>
+      <c r="G14">
+        <v>6</v>
+      </c>
       <c r="S14" s="5"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>32</v>
       </c>
       <c r="C15" t="s">
         <v>30</v>
       </c>
+      <c r="D15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="5">
+        <v>45320</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
       <c r="S15" s="5"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -1847,7 +2085,7 @@
         <v>4</v>
       </c>
       <c r="F16" s="5">
-        <v>45261</v>
+        <v>45258</v>
       </c>
       <c r="G16">
         <v>16</v>
@@ -1857,7 +2095,7 @@
       </c>
       <c r="S16" s="5"/>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>25</v>
       </c>
@@ -1865,11 +2103,17 @@
         <v>31</v>
       </c>
       <c r="D17" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="F17" s="5">
+        <v>45265</v>
+      </c>
+      <c r="G17">
+        <v>12</v>
       </c>
       <c r="S17" s="5"/>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>26</v>
       </c>
@@ -1877,38 +2121,71 @@
         <v>31</v>
       </c>
       <c r="D18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="5">
+        <v>45303</v>
+      </c>
+      <c r="G18">
         <v>5</v>
       </c>
       <c r="S18" s="5"/>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>27</v>
       </c>
       <c r="C19" t="s">
         <v>31</v>
       </c>
+      <c r="D19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="5">
+        <v>45268</v>
+      </c>
+      <c r="G19">
+        <v>11</v>
+      </c>
       <c r="S19" s="5"/>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>28</v>
       </c>
       <c r="C20" t="s">
         <v>31</v>
       </c>
+      <c r="D20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="5">
+        <v>45305</v>
+      </c>
+      <c r="G20">
+        <v>4</v>
+      </c>
       <c r="S20" s="5"/>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>33</v>
       </c>
       <c r="C21" t="s">
         <v>31</v>
       </c>
+      <c r="D21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="5">
+        <v>45265</v>
+      </c>
+      <c r="G21">
+        <v>12</v>
+      </c>
       <c r="S21" s="5"/>
     </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:19" x14ac:dyDescent="0.3">
       <c r="F22" s="5">
         <v>45320</v>
       </c>
@@ -1917,25 +2194,25 @@
       </c>
       <c r="S22" s="5"/>
     </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:19" x14ac:dyDescent="0.3">
       <c r="S23" s="5"/>
     </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:19" x14ac:dyDescent="0.3">
       <c r="S24" s="5"/>
     </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:19" x14ac:dyDescent="0.3">
       <c r="S25" s="5"/>
     </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:19" x14ac:dyDescent="0.3">
       <c r="S26" s="5"/>
     </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:19" x14ac:dyDescent="0.3">
       <c r="S27" s="5"/>
     </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:19" x14ac:dyDescent="0.3">
       <c r="S28" s="5"/>
     </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:19" x14ac:dyDescent="0.3">
       <c r="S29" s="5"/>
     </row>
   </sheetData>
@@ -1950,7 +2227,7 @@
       <formula>NOT(ISERROR(SEARCH("Erledigt",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" sqref="D2:D1048576" xr:uid="{BD9FDE97-7F6A-4810-A886-8AC23400B70E}">
       <formula1>$L$2:$L$5</formula1>
     </dataValidation>
